--- a/technology_memo/images/tmp/見積もり.xlsx
+++ b/technology_memo/images/tmp/見積もり.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1030920204\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2B564EC-74B1-4A5C-B0B9-22D2F71B5A1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C55D9E-A1E2-422A-9F94-A04AFA64B127}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27750" windowHeight="13095" xr2:uid="{8F09EC5A-9EB4-4315-A3D4-95DEEB399FE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F09EC5A-9EB4-4315-A3D4-95DEEB399FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +106,172 @@
   </si>
   <si>
     <t>I-O DATA の外付け ブルーレイドライブ USB 3.0 対応！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案１</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB HDD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NW　I/F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEL インテル CPU Corei9-9900K INTEL300シリーズChipsetマザーボード対応 BX80684I99900K【BOX】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数</t>
+    <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/INTEL-%E3%82%A4%E3%83%B3%E3%83%86%E3%83%AB-Corei9-9900K-INTEL300%E3%82%B7%E3%83%AA%E3%83%BC%E3%82%BAChipset%E3%83%9E%E3%82%B6%E3%83%BC%E3%83%9C%E3%83%BC%E3%83%89%E5%AF%BE%E5%BF%9C-BX80684I99900K%E3%80%90BOX%E3%80%91/dp/B005404P9I/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=0010cbab634dac6c6a6625a5c1da2102&amp;creativeASIN=B005404P9I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seagate BarraCuda 3.5" 6TB 内蔵ハードディスク HDD 2年保証 6Gb/s 256MB 5400rpm 正規代理店品 ST6000DM003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Seagate-BarraCuda-%E5%86%85%E8%94%B5%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-5400rpm-ST4000DM004/dp/B07911QK3W/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=d9bf7d44bf4032b1f27606c472dc05c1&amp;creativeASIN=B073ZGQZM1&amp;th=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASUS Intel® Z390搭載 LGA1151対応マザーボード ROG STRIX Z390-F GAMING【ATX】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Intel%C2%AE-LGA1151%E5%AF%BE%E5%BF%9C%E3%83%9E%E3%82%B6%E3%83%BC%E3%83%9C%E3%83%BC%E3%83%89-ROG-Z390-F-GAMING%E3%80%90ATX%E3%80%91/dp/B07J53J483/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=9c99deba3817a16e921d01c7bbbe8ac2&amp;creativeASIN=B07J53J483</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cooler Master MasterLiquid Lite 120 一体型水冷CPUクーラー [デュアルチャンバーヘッド 搭載] FN1092 MLW-D12M-A20PW-R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Cooler-MasterLiquid-%E4%B8%80%E4%BD%93%E5%9E%8B%E6%B0%B4%E5%86%B7CPU%E3%82%AF%E3%83%BC%E3%83%A9%E3%83%BC-%E3%83%87%E3%83%A5%E3%82%A2%E3%83%AB%E3%83%81%E3%83%A3%E3%83%B3%E3%83%90%E3%83%BC%E3%83%98%E3%83%83%E3%83%89-MLW-D12M-A20PW-R1/dp/B06WRRDS73/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=c89a99bbdaa8728472e61d4023eaf50b&amp;creativeASIN=B06WRRDS73</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Corsair RM850x -2018-850W PC電源ユニット [80PLUS GOLD] PS795 CP-9020180-JP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Corsair-RM1000x-GOLD%E8%AA%8D%E8%A8%BC%E5%8F%96%E5%BE%97-1000W%E9%9D%99%E9%9F%B3%E9%9B%BB%E6%BA%90%E3%83%A6%E3%83%8B%E3%83%83%E3%83%88-CP-9020094-JP/dp/B07D2KNCXD/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=5c9751a36d60741b86cd31b5259dfb44&amp;creativeASIN=B0190M0DS2&amp;th=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-O DATA ブルーレイドライブ 外付型/USB 3.0/BDXL/M-DISC/16倍速高速書き込み BRD-UT16WX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/DATA-%E3%83%96%E3%83%AB%E3%83%BC%E3%83%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96-M-DISC-16%E5%80%8D%E9%80%9F%E9%AB%98%E9%80%9F%E6%9B%B8%E3%81%8D%E8%BE%BC%E3%81%BF-BRD-UT16WX/dp/B017V4WN0C/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=7516c267c2f703db436977a6d603e8ae&amp;creativeASIN=B017V4WN0C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Corsair Carbite 100R Silent ATX対応ミドルタワーPCケース CS5332 CC-9011077-WW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Corsair-Carbite-Silent-ATX%E5%AF%BE%E5%BF%9C%E3%83%9F%E3%83%89%E3%83%AB%E3%82%BF%E3%83%AF%E3%83%BCPC%E3%82%B1%E3%83%BC%E3%82%B9-CC-9011077-WW/dp/B00RORBQSW/ref=sr_1_7?fst=as%3Aoff&amp;qid=1554181002&amp;refinements=p_n_feature_six_browse-bin%3A2189031051&amp;rnid=2189016051&amp;s=computers&amp;sr=1-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD HDD 外付けハードディスク 6TB Elements Desktop USB3.0 WDBBKG0060HBK-JESN / 2年保証</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/%E5%A4%96%E4%BB%98%E3%81%91%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-Elements-Desktop-USB3-0-WDBBKG0060HBK-JESN/dp/B07CY469C5/ref=sr_1_12?fst=as%3Aoff&amp;qid=1554182042&amp;refinements=p_n_feature_browse-bin%3A3292104051&amp;rnid=2180328051&amp;s=computers&amp;sr=1-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gigabit LAN カード, インテル82580純正ボード(チップ）実装, Quad RJ45 ポート, PCI-E 2.0 X4,I340-T4/ E1G44HT,PCサーバ用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Gigabit-%E3%82%A4%E3%83%B3%E3%83%86%E3%83%AB82580%E7%B4%94%E6%AD%A3%E3%83%9C%E3%83%BC%E3%83%89-%E3%83%81%E3%83%83%E3%83%97%EF%BC%89%E5%AE%9F%E8%A3%85-I340-T4-E1G44HT/dp/B01LWIJ2UZ/ref=sr_1_1?__mk_ja_JP=%E3%82%AB%E3%82%BF%E3%82%AB%E3%83%8A&amp;keywords=82580&amp;qid=1554183165&amp;s=computers&amp;sr=1-1-catcorr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Samsung SSD 500GB 970 EVO Plus M.2 Type2280 PCIe3.0×4 NVMe1.3 5年保証 正規代理店保証品 MZ-V7S500B/EC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/exec/obidos/ASIN/B07MZ4R9FR/ref=nosim?tag=maftracking130538-22&amp;linkCode=ure&amp;creative=6339&amp;th=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volflashy M.2 SSD ヒートシンク クーラー M.2 2280 ソリッド ステート ハード ディスク ドライブ ラジエーター オール アルミ ヒートシンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSD ヒートシンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/volflashy-%E3%83%92%E3%83%BC%E3%83%88%E3%82%B7%E3%83%B3%E3%82%AF-%E3%82%AF%E3%83%BC%E3%83%A9%E3%83%BC-2280-%E3%83%A9%E3%82%B8%E3%82%A8%E3%83%BC%E3%82%BF%E3%83%BC/dp/B07MXCVXCJ/ref=sr_1_24?__mk_ja_JP=%E3%82%AB%E3%82%BF%E3%82%AB%E3%83%8A&amp;crid=2GHIX8ZXYFLYN&amp;keywords=m.2+%E3%83%92%E3%83%BC%E3%83%88%E3%82%B7%E3%83%B3%E3%82%AF&amp;qid=1554186498&amp;s=computers&amp;sprefix=M.2+%2Ccomputers%2C314&amp;sr=1-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CORSAIR DDR4 デスクトップPC用 メモリモジュール VENGEANCE LPX Series 16GB×4枚キット CMK64GX4M4A2666C16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/CORSAIR-%E3%83%87%E3%82%B9%E3%82%AF%E3%83%88%E3%83%83%E3%83%97PC%E7%94%A8-VENGEANCE-8GB%C3%974%E6%9E%9A%E3%82%AD%E3%83%83%E3%83%88-CMK32GX4M4A2666C16/dp/B016ORTR1U/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=99a34a42405620e2af397307044a6ab2&amp;creativeASIN=B00OTJZTZE&amp;th=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Windows 10 Pro April 2018 Update適用(最新) 32bit/64bit 日本語版|パッケージ版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Microsoft-Windows-April-Update%E9%81%A9%E7%94%A8-%E3%83%91%E3%83%83%E3%82%B1%E3%83%BC%E3%82%B8%E7%89%88/dp/B07765H5G4/ref=pd_bxgy_147_img_2/355-0961215-7082819?_encoding=UTF8&amp;pd_rd_i=B07765H5G4&amp;pd_rd_r=8cdbad46-5512-11e9-8dd8-1d7f997cbaaa&amp;pd_rd_w=BKtKA&amp;pd_rd_wg=t6HvV&amp;pf_rd_p=2d39d87c-5ff4-47a9-a2d0-79fb936a2d97&amp;pf_rd_r=4G29FPZHG6Q8M1XK18T3&amp;psc=1&amp;refRID=4G29FPZHG6Q8M1XK18T3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -107,7 +279,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +305,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,13 +337,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,8 +371,30 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,170 +707,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E0DAC-A1EC-4E87-9336-24EEA2CCDC61}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.375" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>72980</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="6">
+        <v>65858</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>65858</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>48358</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D14" si="0">B4*C4</f>
+        <v>48358</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14980</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>29960</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11640</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>34920</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>22557</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>22557</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6122</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6122</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>13190</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>13190</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15121</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>15121</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5546</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>5546</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6">
+        <v>16980</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>16980</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9800</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1596</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>3192</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6">
+        <v>22888</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15" si="1">B15*C15</f>
+        <v>22888</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D16" s="8">
+        <f>SUM(D3:D15)</f>
+        <v>294492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
         <v>45939</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B23">
         <v>25401</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B24">
         <v>8957</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B25">
         <v>12569</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B26">
         <v>22557</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B27">
         <v>6122</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>18827</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B28" s="1">
         <v>11999</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B29">
         <v>17121</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>17161</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B30" s="1">
         <v>7026</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>201695</v>
-      </c>
-      <c r="D11" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
         <v>4259</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D12" s="1">
-        <f>D2+B3+B4+B5+B6+B7+D8+B9+D10+D11</f>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <f>SUM(B22:B31)</f>
         <v>161950</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.amazon.co.jp/CORSAIR-%E3%83%87%E3%82%B9%E3%82%AF%E3%83%88%E3%83%83%E3%83%97PC%E7%94%A8-VENGEANCE-8GB%C3%974%E6%9E%9A%E3%82%AD%E3%83%83%E3%83%88-CMK32GX4M4A2666C16/dp/B016ORTR1U/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=99a34a42405620e2af397307044a6ab2&amp;creativeASIN=B00OTJZTZE&amp;th=1" xr:uid="{58311AA8-A696-4DAD-B332-771896D1DA9B}"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://www.amazon.co.jp/Seagate-BarraCuda-%E5%86%85%E8%94%B5%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-5400rpm-ST4000DM004/dp/B07911QK3W/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=d9bf7d44bf4032b1f27606c472dc05c1&amp;creativeASIN=B073ZGQZM1&amp;th=1" xr:uid="{FBA43CC7-7944-457B-968A-4EECCD989FB8}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.amazon.co.jp/Intel%C2%AE-LGA1151%E5%AF%BE%E5%BF%9C%E3%83%9E%E3%82%B6%E3%83%BC%E3%83%9C%E3%83%BC%E3%83%89-ROG-Z390-F-GAMING%E3%80%90ATX%E3%80%91/dp/B07J53J483/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=9c99deba3817a16e921d01c7bbbe8ac2&amp;creativeASIN=B07J53J483" xr:uid="{8F6F80D4-8DF9-4455-B4A9-EAC4949C419D}"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://www.amazon.co.jp/Corsair-RM1000x-GOLD%E8%AA%8D%E8%A8%BC%E5%8F%96%E5%BE%97-1000W%E9%9D%99%E9%9F%B3%E9%9B%BB%E6%BA%90%E3%83%A6%E3%83%8B%E3%83%83%E3%83%88-CP-9020094-JP/dp/B07D2KNCXD/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=5c9751a36d60741b86cd31b5259dfb44&amp;creativeASIN=B0190M0DS2&amp;th=1" xr:uid="{F86FD5EC-D566-4FF7-907D-B57A7837D4C5}"/>
+    <hyperlink ref="F11" r:id="rId5" display="https://www.amazon.co.jp/Corsair-Carbite-Silent-ATX%E5%AF%BE%E5%BF%9C%E3%83%9F%E3%83%89%E3%83%AB%E3%82%BF%E3%83%AF%E3%83%BCPC%E3%82%B1%E3%83%BC%E3%82%B9-CC-9011077-WW/dp/B00RORBQSW/ref=sr_1_7?fst=as%3Aoff&amp;qid=1554181002&amp;refinements=p_n_feature_six_browse-bin%3A2189031051&amp;rnid=2189016051&amp;s=computers&amp;sr=1-7" xr:uid="{5A8A3C82-3A2B-4385-B71E-019FF79B3CE8}"/>
+    <hyperlink ref="F12" r:id="rId6" display="https://www.amazon.co.jp/%E5%A4%96%E4%BB%98%E3%81%91%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-Elements-Desktop-USB3-0-WDBBKG0060HBK-JESN/dp/B07CY469C5/ref=sr_1_12?fst=as%3Aoff&amp;qid=1554182042&amp;refinements=p_n_feature_browse-bin%3A3292104051&amp;rnid=2180328051&amp;s=computers&amp;sr=1-12" xr:uid="{1B359B5E-2AF1-4545-9FC1-DDC73CE87C13}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{4E8B8B97-E3F0-4FE0-B52E-C0392129AAF9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/technology_memo/images/tmp/見積もり.xlsx
+++ b/technology_memo/images/tmp/見積もり.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C55D9E-A1E2-422A-9F94-A04AFA64B127}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14037634-5267-4557-85F5-A070D2705651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F09EC5A-9EB4-4315-A3D4-95DEEB399FE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1"/>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Seagate BarraCuda 3.5" 6TB 内蔵ハードディスク HDD 2年保証 6Gb/s 256MB 5400rpm 正規代理店品 ST6000DM003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/Seagate-BarraCuda-%E5%86%85%E8%94%B5%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-5400rpm-ST4000DM004/dp/B07911QK3W/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=d9bf7d44bf4032b1f27606c472dc05c1&amp;creativeASIN=B073ZGQZM1&amp;th=1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ASUS Intel® Z390搭載 LGA1151対応マザーボード ROG STRIX Z390-F GAMING【ATX】</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,14 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Corsair RM850x -2018-850W PC電源ユニット [80PLUS GOLD] PS795 CP-9020180-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/Corsair-RM1000x-GOLD%E8%AA%8D%E8%A8%BC%E5%8F%96%E5%BE%97-1000W%E9%9D%99%E9%9F%B3%E9%9B%BB%E6%BA%90%E3%83%A6%E3%83%8B%E3%83%83%E3%83%88-CP-9020094-JP/dp/B07D2KNCXD/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=5c9751a36d60741b86cd31b5259dfb44&amp;creativeASIN=B0190M0DS2&amp;th=1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I-O DATA ブルーレイドライブ 外付型/USB 3.0/BDXL/M-DISC/16倍速高速書き込み BRD-UT16WX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,6 +256,10 @@
   </si>
   <si>
     <t>https://www.amazon.co.jp/Microsoft-Windows-April-Update%E9%81%A9%E7%94%A8-%E3%83%91%E3%83%83%E3%82%B1%E3%83%BC%E3%82%B8%E7%89%88/dp/B07765H5G4/ref=pd_bxgy_147_img_2/355-0961215-7082819?_encoding=UTF8&amp;pd_rd_i=B07765H5G4&amp;pd_rd_r=8cdbad46-5512-11e9-8dd8-1d7f997cbaaa&amp;pd_rd_w=BKtKA&amp;pd_rd_wg=t6HvV&amp;pf_rd_p=2d39d87c-5ff4-47a9-a2d0-79fb936a2d97&amp;pf_rd_r=4G29FPZHG6Q8M1XK18T3&amp;psc=1&amp;refRID=4G29FPZHG6Q8M1XK18T3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD HDD 内蔵ハードディスク 3.5インチ 6TB WD Blue WD60EZRZ-RT SATA3.0 5400rpm 2年保証</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -315,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,7 +383,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -778,10 +778,10 @@
         <v>48358</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -799,32 +799,30 @@
         <v>29960</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>11640</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="10">
+        <v>13300</v>
+      </c>
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>34920</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>39900</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
@@ -841,10 +839,10 @@
         <v>22557</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -862,32 +860,28 @@
         <v>6122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>13190</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>13190</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
@@ -904,10 +898,10 @@
         <v>15121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -925,10 +919,10 @@
         <v>5546</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -946,10 +940,10 @@
         <v>16980</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -967,36 +961,36 @@
         <v>9800</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="B14" s="6">
         <v>1596</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>3192</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>48</v>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>22888</v>
@@ -1008,17 +1002,17 @@
         <f t="shared" ref="D15" si="1">B15*C15</f>
         <v>22888</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>53</v>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="8">
         <f>SUM(D3:D15)</f>
-        <v>294492</v>
+        <v>299472</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1150,14 +1144,12 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="https://www.amazon.co.jp/CORSAIR-%E3%83%87%E3%82%B9%E3%82%AF%E3%83%88%E3%83%83%E3%83%97PC%E7%94%A8-VENGEANCE-8GB%C3%974%E6%9E%9A%E3%82%AD%E3%83%83%E3%83%88-CMK32GX4M4A2666C16/dp/B016ORTR1U/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=99a34a42405620e2af397307044a6ab2&amp;creativeASIN=B00OTJZTZE&amp;th=1" xr:uid="{58311AA8-A696-4DAD-B332-771896D1DA9B}"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://www.amazon.co.jp/Seagate-BarraCuda-%E5%86%85%E8%94%B5%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-5400rpm-ST4000DM004/dp/B07911QK3W/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=d9bf7d44bf4032b1f27606c472dc05c1&amp;creativeASIN=B073ZGQZM1&amp;th=1" xr:uid="{FBA43CC7-7944-457B-968A-4EECCD989FB8}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.amazon.co.jp/Intel%C2%AE-LGA1151%E5%AF%BE%E5%BF%9C%E3%83%9E%E3%82%B6%E3%83%BC%E3%83%9C%E3%83%BC%E3%83%89-ROG-Z390-F-GAMING%E3%80%90ATX%E3%80%91/dp/B07J53J483/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=9c99deba3817a16e921d01c7bbbe8ac2&amp;creativeASIN=B07J53J483" xr:uid="{8F6F80D4-8DF9-4455-B4A9-EAC4949C419D}"/>
-    <hyperlink ref="F9" r:id="rId4" display="https://www.amazon.co.jp/Corsair-RM1000x-GOLD%E8%AA%8D%E8%A8%BC%E5%8F%96%E5%BE%97-1000W%E9%9D%99%E9%9F%B3%E9%9B%BB%E6%BA%90%E3%83%A6%E3%83%8B%E3%83%83%E3%83%88-CP-9020094-JP/dp/B07D2KNCXD/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=5c9751a36d60741b86cd31b5259dfb44&amp;creativeASIN=B0190M0DS2&amp;th=1" xr:uid="{F86FD5EC-D566-4FF7-907D-B57A7837D4C5}"/>
-    <hyperlink ref="F11" r:id="rId5" display="https://www.amazon.co.jp/Corsair-Carbite-Silent-ATX%E5%AF%BE%E5%BF%9C%E3%83%9F%E3%83%89%E3%83%AB%E3%82%BF%E3%83%AF%E3%83%BCPC%E3%82%B1%E3%83%BC%E3%82%B9-CC-9011077-WW/dp/B00RORBQSW/ref=sr_1_7?fst=as%3Aoff&amp;qid=1554181002&amp;refinements=p_n_feature_six_browse-bin%3A2189031051&amp;rnid=2189016051&amp;s=computers&amp;sr=1-7" xr:uid="{5A8A3C82-3A2B-4385-B71E-019FF79B3CE8}"/>
-    <hyperlink ref="F12" r:id="rId6" display="https://www.amazon.co.jp/%E5%A4%96%E4%BB%98%E3%81%91%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-Elements-Desktop-USB3-0-WDBBKG0060HBK-JESN/dp/B07CY469C5/ref=sr_1_12?fst=as%3Aoff&amp;qid=1554182042&amp;refinements=p_n_feature_browse-bin%3A3292104051&amp;rnid=2180328051&amp;s=computers&amp;sr=1-12" xr:uid="{1B359B5E-2AF1-4545-9FC1-DDC73CE87C13}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{4E8B8B97-E3F0-4FE0-B52E-C0392129AAF9}"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://www.amazon.co.jp/Intel%C2%AE-LGA1151%E5%AF%BE%E5%BF%9C%E3%83%9E%E3%82%B6%E3%83%BC%E3%83%9C%E3%83%BC%E3%83%89-ROG-Z390-F-GAMING%E3%80%90ATX%E3%80%91/dp/B07J53J483/ref=as_sl_pc_tf_til?tag=serverworld-22&amp;linkCode=w00&amp;linkId=9c99deba3817a16e921d01c7bbbe8ac2&amp;creativeASIN=B07J53J483" xr:uid="{8F6F80D4-8DF9-4455-B4A9-EAC4949C419D}"/>
+    <hyperlink ref="F11" r:id="rId3" display="https://www.amazon.co.jp/Corsair-Carbite-Silent-ATX%E5%AF%BE%E5%BF%9C%E3%83%9F%E3%83%89%E3%83%AB%E3%82%BF%E3%83%AF%E3%83%BCPC%E3%82%B1%E3%83%BC%E3%82%B9-CC-9011077-WW/dp/B00RORBQSW/ref=sr_1_7?fst=as%3Aoff&amp;qid=1554181002&amp;refinements=p_n_feature_six_browse-bin%3A2189031051&amp;rnid=2189016051&amp;s=computers&amp;sr=1-7" xr:uid="{5A8A3C82-3A2B-4385-B71E-019FF79B3CE8}"/>
+    <hyperlink ref="F12" r:id="rId4" display="https://www.amazon.co.jp/%E5%A4%96%E4%BB%98%E3%81%91%E3%83%8F%E3%83%BC%E3%83%89%E3%83%87%E3%82%A3%E3%82%B9%E3%82%AF-Elements-Desktop-USB3-0-WDBBKG0060HBK-JESN/dp/B07CY469C5/ref=sr_1_12?fst=as%3Aoff&amp;qid=1554182042&amp;refinements=p_n_feature_browse-bin%3A3292104051&amp;rnid=2180328051&amp;s=computers&amp;sr=1-12" xr:uid="{1B359B5E-2AF1-4545-9FC1-DDC73CE87C13}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{4E8B8B97-E3F0-4FE0-B52E-C0392129AAF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>